--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124011a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124011a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>1.500342306277658</v>
+      </c>
+      <c r="C5">
+        <v>1.753876182675048</v>
+      </c>
+      <c r="D5">
+        <v>1.82129503512408</v>
+      </c>
+      <c r="E5">
+        <v>2.009201227918592</v>
+      </c>
+      <c r="F5">
+        <v>1.833453628555492</v>
+      </c>
+      <c r="G5">
+        <v>3.705014957383511</v>
+      </c>
+      <c r="H5">
+        <v>1.9604420360702</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1.500342306277658</v>
+        <v>9.871604888030811</v>
       </c>
       <c r="C6">
-        <v>1.753876182675048</v>
+        <v>9.891188817505931</v>
       </c>
       <c r="D6">
-        <v>1.82129503512408</v>
+        <v>11.85773968986062</v>
       </c>
       <c r="E6">
-        <v>2.009201227918592</v>
+        <v>11.32646692811024</v>
       </c>
       <c r="F6">
-        <v>1.833453628555492</v>
+        <v>11.12812938807074</v>
       </c>
       <c r="G6">
-        <v>3.705014957383511</v>
+        <v>20.52585649895981</v>
       </c>
       <c r="H6">
-        <v>1.9604420360702</v>
+        <v>11.02511020853008</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>9.871604888030811</v>
+        <v>3.758989903111189</v>
       </c>
       <c r="C7">
-        <v>9.891188817505931</v>
+        <v>4.399210220173847</v>
       </c>
       <c r="D7">
-        <v>11.85773968986062</v>
+        <v>4.153069755156766</v>
       </c>
       <c r="E7">
-        <v>11.32646692811024</v>
+        <v>4.910279554258777</v>
       </c>
       <c r="F7">
-        <v>11.12812938807074</v>
+        <v>4.101624183088457</v>
       </c>
       <c r="G7">
-        <v>20.52585649895981</v>
+        <v>9.548423700735704</v>
       </c>
       <c r="H7">
-        <v>11.02511020853008</v>
+        <v>4.116382841901658</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>10.72460852446764</v>
+      </c>
+      <c r="C8">
+        <v>12.3641864490858</v>
+      </c>
+      <c r="D8">
+        <v>14.37375973662416</v>
+      </c>
+      <c r="E8">
+        <v>17.09678203825165</v>
+      </c>
+      <c r="F8">
+        <v>10.79980436683418</v>
+      </c>
+      <c r="G8">
+        <v>26.20193192562156</v>
+      </c>
+      <c r="H8">
+        <v>11.47900068436144</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>3.758989903111189</v>
+        <v>12.41684906169708</v>
       </c>
       <c r="C9">
-        <v>4.399210220173847</v>
+        <v>14.32741078399985</v>
       </c>
       <c r="D9">
-        <v>4.153069755156766</v>
+        <v>21.67482436753668</v>
       </c>
       <c r="E9">
-        <v>4.910279554258777</v>
+        <v>15.29961417286086</v>
       </c>
       <c r="F9">
-        <v>4.101624183088457</v>
+        <v>15.23344090836754</v>
       </c>
       <c r="G9">
-        <v>9.548423700735704</v>
+        <v>42.4904709406922</v>
       </c>
       <c r="H9">
-        <v>4.116382841901658</v>
+        <v>15.95992116114005</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>10.72460852446764</v>
+        <v>9.068007444300866</v>
       </c>
       <c r="C10">
-        <v>12.3641864490858</v>
+        <v>11.0049474802064</v>
       </c>
       <c r="D10">
-        <v>14.37375973662416</v>
+        <v>9.910524439143675</v>
       </c>
       <c r="E10">
-        <v>17.09678203825165</v>
+        <v>15.38213379315487</v>
       </c>
       <c r="F10">
-        <v>10.79980436683418</v>
+        <v>9.190334564622635</v>
       </c>
       <c r="G10">
-        <v>26.20193192562156</v>
+        <v>30.85042821913577</v>
       </c>
       <c r="H10">
-        <v>11.47900068436144</v>
+        <v>9.555056358622124</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>12.41684906169708</v>
+        <v>16.04276851613043</v>
       </c>
       <c r="C11">
-        <v>14.32741078399985</v>
+        <v>14.71865570733396</v>
       </c>
       <c r="D11">
-        <v>21.67482436753668</v>
+        <v>24.25939906808885</v>
       </c>
       <c r="E11">
-        <v>15.29961417286086</v>
+        <v>36.90441409738423</v>
       </c>
       <c r="F11">
-        <v>15.23344090836754</v>
+        <v>14.73976202119247</v>
       </c>
       <c r="G11">
-        <v>42.4904709406922</v>
+        <v>38.69744416723757</v>
       </c>
       <c r="H11">
-        <v>15.95992116114005</v>
+        <v>14.9613692245177</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>9.068007444300866</v>
+        <v>4.927678995320328</v>
       </c>
       <c r="C12">
-        <v>11.0049474802064</v>
+        <v>5.88254627647677</v>
       </c>
       <c r="D12">
-        <v>9.910524439143675</v>
+        <v>5.21614962898173</v>
       </c>
       <c r="E12">
-        <v>15.38213379315487</v>
+        <v>6.082312742628943</v>
       </c>
       <c r="F12">
-        <v>9.190334564622635</v>
+        <v>5.412706262519925</v>
       </c>
       <c r="G12">
-        <v>30.85042821913577</v>
+        <v>12.36009425857731</v>
       </c>
       <c r="H12">
-        <v>9.555056358622124</v>
+        <v>5.365610148458736</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>16.04276851613043</v>
+        <v>19.18936202929671</v>
       </c>
       <c r="C13">
-        <v>14.71865570733396</v>
+        <v>17.89202025377439</v>
       </c>
       <c r="D13">
-        <v>24.25939906808885</v>
+        <v>25.10404990866876</v>
       </c>
       <c r="E13">
-        <v>36.90441409738423</v>
+        <v>23.33420218887608</v>
       </c>
       <c r="F13">
-        <v>14.73976202119247</v>
+        <v>20.49968320687805</v>
       </c>
       <c r="G13">
-        <v>38.69744416723757</v>
+        <v>34.89864143519909</v>
       </c>
       <c r="H13">
-        <v>14.9613692245177</v>
+        <v>21.13631810100459</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>4.927678995320328</v>
+        <v>14.64223912489069</v>
       </c>
       <c r="C14">
-        <v>5.88254627647677</v>
+        <v>19.58127937422615</v>
       </c>
       <c r="D14">
-        <v>5.21614962898173</v>
+        <v>14.93501948971711</v>
       </c>
       <c r="E14">
-        <v>6.082312742628943</v>
+        <v>17.76818562108684</v>
       </c>
       <c r="F14">
-        <v>5.412706262519925</v>
+        <v>15.69852335736826</v>
       </c>
       <c r="G14">
-        <v>12.36009425857731</v>
+        <v>41.43987541782935</v>
       </c>
       <c r="H14">
-        <v>5.365610148458736</v>
+        <v>14.35543205553794</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>19.18936202929671</v>
+        <v>2.760182733205963</v>
       </c>
       <c r="C15">
-        <v>17.89202025377439</v>
+        <v>3.151453672774803</v>
       </c>
       <c r="D15">
-        <v>25.10404990866876</v>
+        <v>3.145015132287846</v>
       </c>
       <c r="E15">
-        <v>23.33420218887608</v>
+        <v>3.797867046977069</v>
       </c>
       <c r="F15">
-        <v>20.49968320687805</v>
+        <v>2.969500433503661</v>
       </c>
       <c r="G15">
-        <v>34.89864143519909</v>
+        <v>5.091604328288206</v>
       </c>
       <c r="H15">
-        <v>21.13631810100459</v>
+        <v>3.175961256034465</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>14.64223912489069</v>
+        <v>16.90354989364348</v>
       </c>
       <c r="C16">
-        <v>19.58127937422615</v>
+        <v>15.68087728974173</v>
       </c>
       <c r="D16">
-        <v>14.93501948971711</v>
+        <v>20.68875423489928</v>
       </c>
       <c r="E16">
-        <v>17.76818562108684</v>
+        <v>23.21407575804421</v>
       </c>
       <c r="F16">
-        <v>15.69852335736826</v>
+        <v>17.20799520094041</v>
       </c>
       <c r="G16">
-        <v>41.43987541782935</v>
+        <v>22.82744924756807</v>
       </c>
       <c r="H16">
-        <v>14.35543205553794</v>
+        <v>18.23997910770466</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>2.760182733205963</v>
+        <v>10.96055967187634</v>
       </c>
       <c r="C17">
-        <v>3.151453672774803</v>
+        <v>12.63574606441614</v>
       </c>
       <c r="D17">
-        <v>3.145015132287846</v>
+        <v>13.42086857683158</v>
       </c>
       <c r="E17">
-        <v>3.797867046977069</v>
+        <v>19.73841025013453</v>
       </c>
       <c r="F17">
-        <v>2.969500433503661</v>
+        <v>12.30153823988214</v>
       </c>
       <c r="G17">
-        <v>5.091604328288206</v>
+        <v>37.30012433548073</v>
       </c>
       <c r="H17">
-        <v>3.175961256034465</v>
+        <v>12.52680277821089</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>16.90354989364348</v>
+        <v>3.780198389785246</v>
       </c>
       <c r="C18">
-        <v>15.68087728974173</v>
+        <v>4.586962795927577</v>
       </c>
       <c r="D18">
-        <v>20.68875423489928</v>
+        <v>5.253217811508604</v>
       </c>
       <c r="E18">
-        <v>23.21407575804421</v>
+        <v>5.879247819529752</v>
       </c>
       <c r="F18">
-        <v>17.20799520094041</v>
+        <v>4.444714090150654</v>
       </c>
       <c r="G18">
-        <v>22.82744924756807</v>
+        <v>15.34664478525779</v>
       </c>
       <c r="H18">
-        <v>18.23997910770466</v>
+        <v>4.530691488268781</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>10.96055967187634</v>
+        <v>7.718515885037007</v>
       </c>
       <c r="C19">
-        <v>12.63574606441614</v>
+        <v>10.59720020264106</v>
       </c>
       <c r="D19">
-        <v>13.42086857683158</v>
+        <v>7.778127128705361</v>
       </c>
       <c r="E19">
-        <v>19.73841025013453</v>
+        <v>9.249642963970203</v>
       </c>
       <c r="F19">
-        <v>12.30153823988214</v>
+        <v>10.36453099169433</v>
       </c>
       <c r="G19">
-        <v>37.30012433548073</v>
+        <v>20.66824002599432</v>
       </c>
       <c r="H19">
-        <v>12.52680277821089</v>
+        <v>10.56915321309344</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>3.780198389785246</v>
+        <v>11.69573987130967</v>
       </c>
       <c r="C20">
-        <v>4.586962795927577</v>
+        <v>16.01700914651026</v>
       </c>
       <c r="D20">
-        <v>5.253217811508604</v>
+        <v>11.02726481722716</v>
       </c>
       <c r="E20">
-        <v>5.879247819529752</v>
+        <v>14.57625474215611</v>
       </c>
       <c r="F20">
-        <v>4.444714090150654</v>
+        <v>11.13779225155953</v>
       </c>
       <c r="G20">
-        <v>15.34664478525779</v>
+        <v>22.69163521703026</v>
       </c>
       <c r="H20">
-        <v>4.530691488268781</v>
+        <v>12.84820047792158</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>7.718515885037007</v>
+        <v>4.926178597464148</v>
       </c>
       <c r="C21">
-        <v>10.59720020264106</v>
+        <v>6.549698466533553</v>
       </c>
       <c r="D21">
-        <v>7.778127128705361</v>
+        <v>5.163588460745872</v>
       </c>
       <c r="E21">
-        <v>9.249642963970203</v>
+        <v>6.741542910634125</v>
       </c>
       <c r="F21">
-        <v>10.36453099169433</v>
+        <v>5.374865254075578</v>
       </c>
       <c r="G21">
-        <v>20.66824002599432</v>
+        <v>12.48550453158025</v>
       </c>
       <c r="H21">
-        <v>10.56915321309344</v>
+        <v>5.611743554386249</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>11.69573987130967</v>
+        <v>9.406369324431072</v>
       </c>
       <c r="C22">
-        <v>16.01700914651026</v>
+        <v>12.53167122260184</v>
       </c>
       <c r="D22">
-        <v>11.02726481722716</v>
+        <v>12.83919150336941</v>
       </c>
       <c r="E22">
-        <v>14.57625474215611</v>
+        <v>16.40138115908697</v>
       </c>
       <c r="F22">
-        <v>11.13779225155953</v>
+        <v>9.801610586650568</v>
       </c>
       <c r="G22">
-        <v>22.69163521703026</v>
+        <v>44.12421597221603</v>
       </c>
       <c r="H22">
-        <v>12.84820047792158</v>
+        <v>10.09664123087304</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>4.926178597464148</v>
+        <v>7.327723763247529</v>
       </c>
       <c r="C23">
-        <v>6.549698466533553</v>
+        <v>8.07908958238316</v>
       </c>
       <c r="D23">
-        <v>5.163588460745872</v>
+        <v>10.74086851007815</v>
       </c>
       <c r="E23">
-        <v>6.741542910634125</v>
+        <v>12.18533336186839</v>
       </c>
       <c r="F23">
-        <v>5.374865254075578</v>
+        <v>8.471317805205651</v>
       </c>
       <c r="G23">
-        <v>12.48550453158025</v>
+        <v>27.01952053899251</v>
       </c>
       <c r="H23">
-        <v>5.611743554386249</v>
+        <v>9.24672849009211</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>9.406369324431072</v>
+        <v>4.434781827247972</v>
       </c>
       <c r="C24">
-        <v>12.53167122260184</v>
+        <v>5.195237992308405</v>
       </c>
       <c r="D24">
-        <v>12.83919150336941</v>
+        <v>5.284678249196457</v>
       </c>
       <c r="E24">
-        <v>16.40138115908697</v>
+        <v>9.247161441584451</v>
       </c>
       <c r="F24">
-        <v>9.801610586650568</v>
+        <v>4.101043797295126</v>
       </c>
       <c r="G24">
-        <v>44.12421597221603</v>
+        <v>5.870382391754771</v>
       </c>
       <c r="H24">
-        <v>10.09664123087304</v>
+        <v>4.926501207389272</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>7.327723763247529</v>
+        <v>2.422108554257182</v>
       </c>
       <c r="C25">
-        <v>8.07908958238316</v>
+        <v>2.916364751578632</v>
       </c>
       <c r="D25">
-        <v>10.74086851007815</v>
+        <v>3.11868216794368</v>
       </c>
       <c r="E25">
-        <v>12.18533336186839</v>
+        <v>3.209756787984827</v>
       </c>
       <c r="F25">
-        <v>8.471317805205651</v>
+        <v>3.158244482370727</v>
       </c>
       <c r="G25">
-        <v>27.01952053899251</v>
+        <v>7.38234218732252</v>
       </c>
       <c r="H25">
-        <v>9.24672849009211</v>
+        <v>3.423797419844848</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>4.434781827247972</v>
+        <v>4.334153901621585</v>
       </c>
       <c r="C26">
-        <v>5.195237992308405</v>
+        <v>5.225683941931829</v>
       </c>
       <c r="D26">
-        <v>5.284678249196457</v>
+        <v>5.920149467677488</v>
       </c>
       <c r="E26">
-        <v>9.247161441584451</v>
+        <v>6.38773169802111</v>
       </c>
       <c r="F26">
-        <v>4.101043797295126</v>
+        <v>5.503668679178127</v>
       </c>
       <c r="G26">
-        <v>5.870382391754771</v>
+        <v>12.53685245008572</v>
       </c>
       <c r="H26">
-        <v>4.926501207389272</v>
+        <v>5.937105808221366</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>2.422108554257182</v>
+        <v>8.472166460409577</v>
       </c>
       <c r="C27">
-        <v>2.916364751578632</v>
+        <v>12.31835964823018</v>
       </c>
       <c r="D27">
-        <v>3.11868216794368</v>
+        <v>9.746234774734166</v>
       </c>
       <c r="E27">
-        <v>3.209756787984827</v>
+        <v>12.10200437043215</v>
       </c>
       <c r="F27">
-        <v>3.158244482370727</v>
+        <v>10.69120551681</v>
       </c>
       <c r="G27">
-        <v>7.38234218732252</v>
+        <v>20.7931303380126</v>
       </c>
       <c r="H27">
-        <v>3.423797419844848</v>
+        <v>11.93374099297679</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>4.334153901621585</v>
+        <v>4.756065039680725</v>
       </c>
       <c r="C28">
-        <v>5.225683941931829</v>
+        <v>5.34045628523681</v>
       </c>
       <c r="D28">
-        <v>5.920149467677488</v>
+        <v>6.033276806161435</v>
       </c>
       <c r="E28">
-        <v>6.38773169802111</v>
+        <v>6.030921130174473</v>
       </c>
       <c r="F28">
-        <v>5.503668679178127</v>
+        <v>6.555794957001015</v>
       </c>
       <c r="G28">
-        <v>12.53685245008572</v>
+        <v>13.26593922939842</v>
       </c>
       <c r="H28">
-        <v>5.937105808221366</v>
+        <v>7.244322283235419</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>8.472166460409577</v>
+        <v>3.582872856817167</v>
       </c>
       <c r="C29">
-        <v>12.31835964823018</v>
+        <v>4.372737117459819</v>
       </c>
       <c r="D29">
-        <v>9.746234774734166</v>
+        <v>4.606620405092829</v>
       </c>
       <c r="E29">
-        <v>12.10200437043215</v>
+        <v>4.502608653584149</v>
       </c>
       <c r="F29">
-        <v>10.69120551681</v>
+        <v>5.015577505616311</v>
       </c>
       <c r="G29">
-        <v>20.7931303380126</v>
+        <v>13.00627995732505</v>
       </c>
       <c r="H29">
-        <v>11.93374099297679</v>
+        <v>5.379521082915796</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>4.756065039680725</v>
+        <v>3.530449306608658</v>
       </c>
       <c r="C30">
-        <v>5.34045628523681</v>
+        <v>3.956836376742992</v>
       </c>
       <c r="D30">
-        <v>6.033276806161435</v>
+        <v>4.844910654732862</v>
       </c>
       <c r="E30">
-        <v>6.030921130174473</v>
+        <v>3.862259834721346</v>
       </c>
       <c r="F30">
-        <v>6.555794957001015</v>
+        <v>6.991797195431318</v>
       </c>
       <c r="G30">
-        <v>13.26593922939842</v>
+        <v>12.32950564995726</v>
       </c>
       <c r="H30">
-        <v>7.244322283235419</v>
+        <v>8.027447682669871</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>3.582872856817167</v>
+        <v>5.423886332623453</v>
       </c>
       <c r="C31">
-        <v>4.372737117459819</v>
+        <v>5.987938676776652</v>
       </c>
       <c r="D31">
-        <v>4.606620405092829</v>
+        <v>7.498509550661321</v>
       </c>
       <c r="E31">
-        <v>4.502608653584149</v>
+        <v>5.89019602734147</v>
       </c>
       <c r="F31">
-        <v>5.015577505616311</v>
+        <v>10.25074059807248</v>
       </c>
       <c r="G31">
-        <v>13.00627995732505</v>
+        <v>22.69691846463432</v>
       </c>
       <c r="H31">
-        <v>5.379521082915796</v>
+        <v>11.09196925746607</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>3.530449306608658</v>
+        <v>14.8074416156916</v>
       </c>
       <c r="C32">
-        <v>3.956836376742992</v>
+        <v>15.82306339589708</v>
       </c>
       <c r="D32">
-        <v>4.844910654732862</v>
+        <v>19.7280153784168</v>
       </c>
       <c r="E32">
-        <v>3.862259834721346</v>
+        <v>16.23063898668802</v>
       </c>
       <c r="F32">
-        <v>6.991797195431318</v>
+        <v>22.20235921593487</v>
       </c>
       <c r="G32">
-        <v>12.32950564995726</v>
+        <v>70.34853759154279</v>
       </c>
       <c r="H32">
-        <v>8.027447682669871</v>
+        <v>23.25942188333447</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>5.423886332623453</v>
+        <v>4.281658084254082</v>
       </c>
       <c r="C33">
-        <v>5.987938676776652</v>
+        <v>5.008078405717908</v>
       </c>
       <c r="D33">
-        <v>7.498509550661321</v>
+        <v>6.111876530626177</v>
       </c>
       <c r="E33">
-        <v>5.89019602734147</v>
+        <v>4.730190334905291</v>
       </c>
       <c r="F33">
-        <v>10.25074059807248</v>
+        <v>9.76393798514488</v>
       </c>
       <c r="G33">
-        <v>22.69691846463432</v>
+        <v>14.72525050192309</v>
       </c>
       <c r="H33">
-        <v>11.09196925746607</v>
+        <v>11.89269193158098</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>14.8074416156916</v>
+        <v>3.964111684053164</v>
       </c>
       <c r="C34">
-        <v>15.82306339589708</v>
+        <v>4.351920437993271</v>
       </c>
       <c r="D34">
-        <v>19.7280153784168</v>
+        <v>5.362938671832052</v>
       </c>
       <c r="E34">
-        <v>16.23063898668802</v>
+        <v>5.248285290030489</v>
       </c>
       <c r="F34">
-        <v>22.20235921593487</v>
+        <v>4.603697046293751</v>
       </c>
       <c r="G34">
-        <v>70.34853759154279</v>
+        <v>9.939120751248765</v>
       </c>
       <c r="H34">
-        <v>23.25942188333447</v>
+        <v>4.821706411250809</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>4.281658084254082</v>
+        <v>13.33215256738777</v>
       </c>
       <c r="C35">
-        <v>5.008078405717908</v>
+        <v>12.98147302233646</v>
       </c>
       <c r="D35">
-        <v>6.111876530626177</v>
+        <v>18.61647263399441</v>
       </c>
       <c r="E35">
-        <v>4.730190334905291</v>
+        <v>15.97906984725907</v>
       </c>
       <c r="F35">
-        <v>9.76393798514488</v>
+        <v>15.9100687735197</v>
       </c>
       <c r="G35">
-        <v>14.72525050192309</v>
+        <v>43.03350799583393</v>
       </c>
       <c r="H35">
-        <v>11.89269193158098</v>
+        <v>15.80989007866115</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>3.964111684053164</v>
+        <v>9.44908397901454</v>
       </c>
       <c r="C36">
-        <v>4.351920437993271</v>
+        <v>12.3397694824084</v>
       </c>
       <c r="D36">
-        <v>5.362938671832052</v>
+        <v>12.32840466415775</v>
       </c>
       <c r="E36">
-        <v>5.248285290030489</v>
+        <v>12.92641465134656</v>
       </c>
       <c r="F36">
-        <v>4.603697046293751</v>
+        <v>11.11489301077126</v>
       </c>
       <c r="G36">
-        <v>9.939120751248765</v>
+        <v>23.03664220503772</v>
       </c>
       <c r="H36">
-        <v>4.821706411250809</v>
+        <v>11.73452852749705</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>13.33215256738777</v>
+        <v>6.485775493062613</v>
       </c>
       <c r="C37">
-        <v>12.98147302233646</v>
+        <v>6.932168631182351</v>
       </c>
       <c r="D37">
-        <v>18.61647263399441</v>
+        <v>8.826292272747864</v>
       </c>
       <c r="E37">
-        <v>15.97906984725907</v>
+        <v>8.271865458732522</v>
       </c>
       <c r="F37">
-        <v>15.9100687735197</v>
+        <v>7.488652244110662</v>
       </c>
       <c r="G37">
-        <v>43.03350799583393</v>
+        <v>16.45044172856161</v>
       </c>
       <c r="H37">
-        <v>15.80989007866115</v>
+        <v>7.812994125404974</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>9.44908397901454</v>
+        <v>6.231309965842658</v>
       </c>
       <c r="C38">
-        <v>12.3397694824084</v>
+        <v>6.633106799312776</v>
       </c>
       <c r="D38">
-        <v>12.32840466415775</v>
+        <v>8.298895465151235</v>
       </c>
       <c r="E38">
-        <v>12.92641465134656</v>
+        <v>8.808522032756104</v>
       </c>
       <c r="F38">
-        <v>11.11489301077126</v>
+        <v>7.404636307863247</v>
       </c>
       <c r="G38">
-        <v>23.03664220503772</v>
+        <v>14.19060106133038</v>
       </c>
       <c r="H38">
-        <v>11.73452852749705</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>6.485775493062613</v>
-      </c>
-      <c r="C39">
-        <v>6.932168631182351</v>
-      </c>
-      <c r="D39">
-        <v>8.826292272747864</v>
-      </c>
-      <c r="E39">
-        <v>8.271865458732522</v>
-      </c>
-      <c r="F39">
-        <v>7.488652244110662</v>
-      </c>
-      <c r="G39">
-        <v>16.45044172856161</v>
-      </c>
-      <c r="H39">
-        <v>7.812994125404974</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>6.231309965842658</v>
-      </c>
-      <c r="C40">
-        <v>6.633106799312776</v>
-      </c>
-      <c r="D40">
-        <v>8.298895465151235</v>
-      </c>
-      <c r="E40">
-        <v>8.808522032756104</v>
-      </c>
-      <c r="F40">
-        <v>7.404636307863247</v>
-      </c>
-      <c r="G40">
-        <v>14.19060106133038</v>
-      </c>
-      <c r="H40">
         <v>7.881669363351171</v>
       </c>
     </row>
